--- a/data/trans_orig/P14B20-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B20-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A17E76B-6D97-4D46-8140-26EA30182C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91B65FFA-A0FF-45FE-8745-968452EBB5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A0A42B28-5076-48D2-AABA-2D2A74357106}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9361A1E2-0754-475E-B1C9-D7A9259B359F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="216">
   <si>
     <t>Población cuyas hemorroides le limita en 2012 (Tasa respuesta: 1,15%)</t>
   </si>
@@ -93,19 +93,19 @@
     <t>65,44%</t>
   </si>
   <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
   </si>
   <si>
     <t>65,48%</t>
   </si>
   <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
   </si>
   <si>
     <t>34,36%</t>
@@ -114,19 +114,19 @@
     <t>34,56%</t>
   </si>
   <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
   </si>
   <si>
     <t>34,52%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
   </si>
   <si>
     <t>100%</t>
@@ -153,10 +153,10 @@
     <t>49,82%</t>
   </si>
   <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
   </si>
   <si>
     <t>41,21%</t>
@@ -165,7 +165,7 @@
     <t>15,9%</t>
   </si>
   <si>
-    <t>68,43%</t>
+    <t>67,41%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -174,16 +174,16 @@
     <t>50,18%</t>
   </si>
   <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
   </si>
   <si>
     <t>58,79%</t>
   </si>
   <si>
-    <t>31,57%</t>
+    <t>32,59%</t>
   </si>
   <si>
     <t>84,1%</t>
@@ -195,256 +195,262 @@
     <t>27,79%</t>
   </si>
   <si>
-    <t>71,21%</t>
+    <t>70,77%</t>
   </si>
   <si>
     <t>50,22%</t>
   </si>
   <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
   </si>
   <si>
     <t>41,5%</t>
   </si>
   <si>
-    <t>21,01%</t>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyas hemorroides le limita en 2015 (Tasa respuesta: 1,07%)</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
   </si>
   <si>
     <t>63,29%</t>
   </si>
   <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>56,9%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyas hemorroides le limita en 2015 (Tasa respuesta: 1,07%)</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
     <t>14,64%</t>
   </si>
   <si>
     <t>44,14%</t>
   </si>
   <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
   </si>
   <si>
     <t>68,64%</t>
@@ -471,19 +477,19 @@
     <t>36,19%</t>
   </si>
   <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
   </si>
   <si>
     <t>24,02%</t>
   </si>
   <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -492,25 +498,25 @@
     <t>63,81%</t>
   </si>
   <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
   </si>
   <si>
     <t>75,98%</t>
   </si>
   <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
   </si>
   <si>
     <t>35,75%</t>
   </si>
   <si>
-    <t>78,94%</t>
+    <t>79,29%</t>
   </si>
   <si>
     <t>71,64%</t>
@@ -519,16 +525,16 @@
     <t>50,67%</t>
   </si>
   <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
   </si>
   <si>
     <t>64,25%</t>
   </si>
   <si>
-    <t>21,06%</t>
+    <t>20,71%</t>
   </si>
   <si>
     <t>28,36%</t>
@@ -537,16 +543,16 @@
     <t>49,33%</t>
   </si>
   <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
   </si>
   <si>
     <t>12,39%</t>
   </si>
   <si>
-    <t>53,62%</t>
+    <t>51,9%</t>
   </si>
   <si>
     <t>37,68%</t>
@@ -561,16 +567,16 @@
     <t>24,98%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
   </si>
   <si>
     <t>87,61%</t>
   </si>
   <si>
-    <t>46,38%</t>
+    <t>48,1%</t>
   </si>
   <si>
     <t>62,32%</t>
@@ -585,55 +591,61 @@
     <t>75,02%</t>
   </si>
   <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
   </si>
   <si>
     <t>17,49%</t>
   </si>
   <si>
+    <t>73,69%</t>
+  </si>
+  <si>
     <t>10,64%</t>
   </si>
   <si>
-    <t>45,68%</t>
+    <t>46,43%</t>
   </si>
   <si>
     <t>12,91%</t>
   </si>
   <si>
-    <t>42,55%</t>
+    <t>39,46%</t>
   </si>
   <si>
     <t>82,51%</t>
   </si>
   <si>
+    <t>26,31%</t>
+  </si>
+  <si>
     <t>89,36%</t>
   </si>
   <si>
-    <t>54,32%</t>
+    <t>53,57%</t>
   </si>
   <si>
     <t>87,09%</t>
   </si>
   <si>
-    <t>57,45%</t>
+    <t>60,54%</t>
   </si>
   <si>
     <t>28,84%</t>
   </si>
   <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
   </si>
   <si>
     <t>33,74%</t>
   </si>
   <si>
-    <t>20,39%</t>
+    <t>20,23%</t>
   </si>
   <si>
     <t>51,3%</t>
@@ -642,19 +654,19 @@
     <t>31,68%</t>
   </si>
   <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
   </si>
   <si>
     <t>71,16%</t>
   </si>
   <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
   </si>
   <si>
     <t>66,26%</t>
@@ -663,16 +675,16 @@
     <t>48,7%</t>
   </si>
   <si>
-    <t>79,61%</t>
+    <t>79,77%</t>
   </si>
   <si>
     <t>68,32%</t>
   </si>
   <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E65202-A4FF-42C8-A538-E4C414944D0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89D4D63-8433-479F-8C0A-9B7922900A9C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2591,7 +2603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11BDAE4-F2E7-453A-BB0D-56812DA7AD07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88DC101-7C48-4450-9500-0CFC2E4CF764}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2730,13 +2742,13 @@
         <v>2310</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -2745,13 +2757,13 @@
         <v>7271</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,13 +2778,13 @@
         <v>1763</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -2781,10 +2793,10 @@
         <v>3984</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>16</v>
@@ -2796,13 +2808,13 @@
         <v>5747</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,7 +2895,7 @@
         <v>2155</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
@@ -2898,7 +2910,7 @@
         <v>2155</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
@@ -2932,7 +2944,7 @@
         <v>985</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>15</v>
@@ -2947,7 +2959,7 @@
         <v>985</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>15</v>
@@ -3019,7 +3031,7 @@
         <v>868</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
@@ -3049,7 +3061,7 @@
         <v>868</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
@@ -3070,7 +3082,7 @@
         <v>935</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>15</v>
@@ -3100,7 +3112,7 @@
         <v>1985</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>15</v>
@@ -3180,7 +3192,7 @@
         <v>33</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3189,13 +3201,13 @@
         <v>3960</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -3204,13 +3216,13 @@
         <v>3961</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,7 +3240,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>30</v>
@@ -3240,13 +3252,13 @@
         <v>6982</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -3255,13 +3267,13 @@
         <v>12525</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3490,13 @@
         <v>1767</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -3493,7 +3505,7 @@
         <v>2519</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
@@ -3508,13 +3520,13 @@
         <v>4286</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,10 +3541,10 @@
         <v>3175</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>16</v>
@@ -3544,7 +3556,7 @@
         <v>997</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>15</v>
@@ -3559,13 +3571,13 @@
         <v>4172</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,13 +3645,13 @@
         <v>1125</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3648,13 +3660,13 @@
         <v>3396</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M22" s="7">
         <v>4</v>
@@ -3663,13 +3675,13 @@
         <v>4521</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,10 +3696,10 @@
         <v>7956</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>16</v>
@@ -3699,13 +3711,13 @@
         <v>5617</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -3714,13 +3726,13 @@
         <v>13573</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,13 +3800,13 @@
         <v>951</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -3803,13 +3815,13 @@
         <v>1164</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -3818,13 +3830,13 @@
         <v>2116</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,10 +3851,10 @@
         <v>4489</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>16</v>
@@ -3854,10 +3866,10 @@
         <v>9779</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>16</v>
@@ -3869,10 +3881,10 @@
         <v>14267</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>16</v>
@@ -3943,13 +3955,13 @@
         <v>9672</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H28" s="7">
         <v>13</v>
@@ -3958,13 +3970,13 @@
         <v>15505</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M28" s="7">
         <v>23</v>
@@ -3973,13 +3985,13 @@
         <v>25177</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,13 +4006,13 @@
         <v>23861</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H29" s="7">
         <v>27</v>
@@ -4009,13 +4021,13 @@
         <v>30445</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M29" s="7">
         <v>47</v>
@@ -4024,13 +4036,13 @@
         <v>54306</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B20-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B20-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91B65FFA-A0FF-45FE-8745-968452EBB5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBD56959-D983-4F96-8326-5EA29C3F61B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9361A1E2-0754-475E-B1C9-D7A9259B359F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4B42EECD-5DEC-4C1B-90C5-237BDAD4A3AD}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="212">
   <si>
     <t>Población cuyas hemorroides le limita en 2012 (Tasa respuesta: 1,15%)</t>
   </si>
@@ -93,19 +93,19 @@
     <t>65,44%</t>
   </si>
   <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
   </si>
   <si>
     <t>65,48%</t>
   </si>
   <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
   </si>
   <si>
     <t>34,36%</t>
@@ -114,19 +114,19 @@
     <t>34,56%</t>
   </si>
   <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
   </si>
   <si>
     <t>34,52%</t>
   </si>
   <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
   </si>
   <si>
     <t>100%</t>
@@ -153,19 +153,19 @@
     <t>49,82%</t>
   </si>
   <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
   </si>
   <si>
     <t>41,21%</t>
   </si>
   <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -174,19 +174,19 @@
     <t>50,18%</t>
   </si>
   <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
   </si>
   <si>
     <t>58,79%</t>
   </si>
   <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -195,49 +195,49 @@
     <t>27,79%</t>
   </si>
   <si>
-    <t>70,77%</t>
+    <t>70,64%</t>
   </si>
   <si>
     <t>50,22%</t>
   </si>
   <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
   </si>
   <si>
     <t>41,5%</t>
   </si>
   <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
   </si>
   <si>
     <t>72,21%</t>
   </si>
   <si>
-    <t>29,23%</t>
+    <t>29,36%</t>
   </si>
   <si>
     <t>49,78%</t>
   </si>
   <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
   </si>
   <si>
     <t>58,5%</t>
   </si>
   <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -273,16 +273,16 @@
     <t>10,43%</t>
   </si>
   <si>
-    <t>78,5%</t>
+    <t>76,56%</t>
   </si>
   <si>
     <t>40,5%</t>
   </si>
   <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
   </si>
   <si>
     <t>49,51%</t>
@@ -297,7 +297,7 @@
     <t>65,53%</t>
   </si>
   <si>
-    <t>21,5%</t>
+    <t>23,44%</t>
   </si>
   <si>
     <t>89,57%</t>
@@ -306,10 +306,10 @@
     <t>59,5%</t>
   </si>
   <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -318,103 +318,109 @@
     <t>40,57%</t>
   </si>
   <si>
+    <t>81,47%</t>
+  </si>
+  <si>
     <t>32,97%</t>
   </si>
   <si>
-    <t>83,27%</t>
+    <t>81,77%</t>
   </si>
   <si>
     <t>36,48%</t>
   </si>
   <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
   </si>
   <si>
     <t>59,43%</t>
   </si>
   <si>
+    <t>18,53%</t>
+  </si>
+  <si>
     <t>67,03%</t>
   </si>
   <si>
-    <t>16,73%</t>
+    <t>18,23%</t>
   </si>
   <si>
     <t>63,52%</t>
   </si>
   <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
   </si>
   <si>
     <t>43,1%</t>
   </si>
   <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
   </si>
   <si>
     <t>51,38%</t>
   </si>
   <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
   </si>
   <si>
     <t>48,64%</t>
   </si>
   <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
   </si>
   <si>
     <t>56,9%</t>
   </si>
   <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
   </si>
   <si>
     <t>48,62%</t>
   </si>
   <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
   </si>
   <si>
     <t>51,36%</t>
   </si>
   <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyas hemorroides le limita en 2015 (Tasa respuesta: 1,07%)</t>
+    <t>Población cuyas hemorroides le limita en 2016 (Tasa respuesta: 1,07%)</t>
   </si>
   <si>
     <t>73,78%</t>
   </si>
   <si>
-    <t>29,73%</t>
+    <t>20,61%</t>
   </si>
   <si>
     <t>36,71%</t>
@@ -426,16 +432,16 @@
     <t>55,86%</t>
   </si>
   <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
   </si>
   <si>
     <t>26,22%</t>
   </si>
   <si>
-    <t>70,27%</t>
+    <t>79,39%</t>
   </si>
   <si>
     <t>63,29%</t>
@@ -447,16 +453,10 @@
     <t>44,14%</t>
   </si>
   <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
   </si>
   <si>
     <t>48,16%</t>
@@ -477,19 +477,19 @@
     <t>36,19%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
   </si>
   <si>
     <t>24,02%</t>
   </si>
   <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -498,25 +498,25 @@
     <t>63,81%</t>
   </si>
   <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
   </si>
   <si>
     <t>75,98%</t>
   </si>
   <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
   </si>
   <si>
     <t>35,75%</t>
   </si>
   <si>
-    <t>79,29%</t>
+    <t>78,94%</t>
   </si>
   <si>
     <t>71,64%</t>
@@ -525,16 +525,16 @@
     <t>50,67%</t>
   </si>
   <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
   </si>
   <si>
     <t>64,25%</t>
   </si>
   <si>
-    <t>20,71%</t>
+    <t>21,06%</t>
   </si>
   <si>
     <t>28,36%</t>
@@ -543,148 +543,136 @@
     <t>49,33%</t>
   </si>
   <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
   </si>
   <si>
     <t>12,39%</t>
   </si>
   <si>
-    <t>51,9%</t>
+    <t>59,51%</t>
   </si>
   <si>
     <t>37,68%</t>
   </si>
   <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
   </si>
   <si>
     <t>24,98%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
   </si>
   <si>
     <t>87,61%</t>
   </si>
   <si>
-    <t>48,1%</t>
+    <t>40,49%</t>
   </si>
   <si>
     <t>62,32%</t>
   </si>
   <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
   </si>
   <si>
     <t>75,02%</t>
   </si>
   <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
   </si>
   <si>
     <t>17,49%</t>
   </si>
   <si>
-    <t>73,69%</t>
-  </si>
-  <si>
     <t>10,64%</t>
   </si>
   <si>
-    <t>46,43%</t>
+    <t>45,91%</t>
   </si>
   <si>
     <t>12,91%</t>
   </si>
   <si>
-    <t>39,46%</t>
+    <t>43,81%</t>
   </si>
   <si>
     <t>82,51%</t>
   </si>
   <si>
-    <t>26,31%</t>
-  </si>
-  <si>
     <t>89,36%</t>
   </si>
   <si>
-    <t>53,57%</t>
+    <t>54,09%</t>
   </si>
   <si>
     <t>87,09%</t>
   </si>
   <si>
-    <t>60,54%</t>
+    <t>56,19%</t>
   </si>
   <si>
     <t>28,84%</t>
   </si>
   <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
   </si>
   <si>
     <t>33,74%</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
+    <t>50,73%</t>
   </si>
   <si>
     <t>31,68%</t>
   </si>
   <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
   </si>
   <si>
     <t>71,16%</t>
   </si>
   <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
   </si>
   <si>
     <t>66,26%</t>
   </si>
   <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
+    <t>49,27%</t>
   </si>
   <si>
     <t>68,32%</t>
   </si>
   <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89D4D63-8433-479F-8C0A-9B7922900A9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16806CD3-2166-4B7E-AC8E-D9D1D37BF0B3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2287,7 +2275,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -2296,13 +2284,13 @@
         <v>2149</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -2311,13 +2299,13 @@
         <v>4413</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,10 +2320,10 @@
         <v>3316</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>16</v>
@@ -2347,10 +2335,10 @@
         <v>4370</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>16</v>
@@ -2362,13 +2350,13 @@
         <v>7686</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,13 +2424,13 @@
         <v>11262</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H28" s="7">
         <v>26</v>
@@ -2451,13 +2439,13 @@
         <v>27093</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M28" s="7">
         <v>37</v>
@@ -2466,13 +2454,13 @@
         <v>38355</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2487,13 +2475,13 @@
         <v>14866</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H29" s="7">
         <v>24</v>
@@ -2502,13 +2490,13 @@
         <v>25641</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M29" s="7">
         <v>38</v>
@@ -2517,13 +2505,13 @@
         <v>40507</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,7 +2567,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2603,7 +2591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88DC101-7C48-4450-9500-0CFC2E4CF764}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0718709-3AA2-44E6-BF96-63CAD14AC145}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2620,7 +2608,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2727,10 +2715,10 @@
         <v>4960</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>16</v>
@@ -2742,13 +2730,13 @@
         <v>2310</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -2757,13 +2745,13 @@
         <v>7271</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2778,13 +2766,13 @@
         <v>1763</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -2793,10 +2781,10 @@
         <v>3984</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>16</v>
@@ -2808,13 +2796,13 @@
         <v>5747</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,7 +2883,7 @@
         <v>2155</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
@@ -2910,7 +2898,7 @@
         <v>2155</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
@@ -2944,7 +2932,7 @@
         <v>985</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>15</v>
@@ -2959,7 +2947,7 @@
         <v>985</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>15</v>
@@ -3806,7 +3794,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -3815,13 +3803,13 @@
         <v>1164</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -3830,13 +3818,13 @@
         <v>2116</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,10 +3839,10 @@
         <v>4489</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>193</v>
+        <v>15</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>16</v>
@@ -3866,10 +3854,10 @@
         <v>9779</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>16</v>
@@ -3881,10 +3869,10 @@
         <v>14267</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>16</v>
@@ -3955,13 +3943,13 @@
         <v>9672</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H28" s="7">
         <v>13</v>
@@ -3970,13 +3958,13 @@
         <v>15505</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>23</v>
@@ -3985,13 +3973,13 @@
         <v>25177</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,13 +3994,13 @@
         <v>23861</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>27</v>
@@ -4021,13 +4009,13 @@
         <v>30445</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="M29" s="7">
         <v>47</v>
@@ -4036,13 +4024,13 @@
         <v>54306</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,7 +4086,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
